--- a/xlsx/BMW 3系列_intext.xlsx
+++ b/xlsx/BMW 3系列_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_BMW 3系列</t>
+    <t>汽车种类</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_BMW 3系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%9C%BA</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>旅行車</t>
+    <t>旅行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%BE%8C%E9%A9%85</t>
   </si>
   <si>
-    <t>前置後驅</t>
+    <t>前置后驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%8B%95%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>手動變速器</t>
+    <t>手动变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%B4%E8%B7%9D</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E5%99%B4%E5%B0%84%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>燃料噴射裝置</t>
+    <t>燃料喷射装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%80%E8%83%8C%E8%BD%A6</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
+    <t>标致</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB508</t>
   </si>
   <si>
-    <t>標緻508</t>
+    <t>标致508</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>加拿大年度風雲車</t>
+    <t>加拿大年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%9B%BD%E9%99%85%E8%BD%A6%E5%B1%95</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%BA%A7%E6%95%9E%E7%AF%B7%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙座敞篷車</t>
+    <t>双座敞篷车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMW_Z</t>
